--- a/GoWork/tasks.xlsx
+++ b/GoWork/tasks.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,24 +454,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1007011表演</t>
+          <t>1007010表演</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>我的事项</t>
+          <t>1007011表演</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -480,118 +480,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>的撒</t>
+          <t>1007012表演</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1007012表演</t>
+          <t>特</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>我的游戏</t>
+          <t>撒</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>我的游戏</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1007011表演</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
         <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>我的事项</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>的撒</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1007012表演</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>我的游戏</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,44 +562,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1007010表演</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
